--- a/medicine/Psychotrope/Arbane/Arbane.xlsx
+++ b/medicine/Psychotrope/Arbane/Arbane.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'arbane est un cépage de France de raisins blancs.
@@ -512,7 +524,9 @@
           <t>Origine et répartition géographique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'arbane est un vieux cépage de cuve de l'Aube. Elle fait partie de l'encépagement de l'appellation Champagne mais elle n'est pratiquement plus cultivée à cause de sa maturité tardive et de ses faibles rendements. En France, il couvre un hectare en 1998.
 </t>
@@ -543,7 +557,9 @@
           <t>Caractères ampélographiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Extrémité du jeune rameau aplati et aranéeux blanc verdâtre.
 Jeunes glabre et cuivrés.
@@ -575,7 +591,9 @@
           <t>Aptitudes culturales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La maturité est de deuxième époque soit 15 jours après le chasselas.
 </t>
@@ -606,7 +624,9 @@
           <t>Potentiel technologique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les grappes sont petites et les baies sont de taille petite. La grappe est conique et de compacité moyenne. Le cépage est moyennement vigoureux et de rendements faibles. Il est assez sensible à l'oïdium et au mildiou. L'arbane craint les gelées printanières. À cause de sa maturité tardive, elle ne mûrit bien qu'un an sur trois. Dans les années chaudes, elle produit un excellent vin très bouqueté, sec et nerveux.
 </t>
@@ -637,7 +657,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">L'arbane est connue sous les noms de albane, arbane blanc, arbane du Bachet, arbanne, arbanne blanche, arbenne, arbenne blanc, arbone, arbonne, crène, crénillat et darbanne.
 </t>
@@ -668,7 +690,9 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">La maison de Champagne Moutard-Diligent à Buxeuil produit un champagne "Vieilles Vignes Cépage Arbane" d'une parcelle plantée en 1952, et une "Cuvée des six cépages" comprenant 1/6e de chaque cépage, dont l'arbane.
 Depuis l'an 2000, la maison Aubry à Jouy-les-Reims produit une cuvée issue des cépages petit meslier, arbane et pinot blanc.
